--- a/data/Vaccine profile age_assumptions - CK edit.xlsx
+++ b/data/Vaccine profile age_assumptions - CK edit.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="277" documentId="13_ncr:1_{BB449E5E-4C08-C340-B34F-4BD61F62AC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D2393D7-9897-4C14-BC2E-4D1773616100}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6525" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SIGs" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4815,8 +4815,8 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="B40:K40"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6217,6 +6217,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FED123832FD0488CFCE1AA10E1DCD4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41a705e68a8aeb9b58d52370ca01447e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a45b7c79-9df6-4e54-8c6e-a05b6926a077" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba608db981251bffcca843424efdcbba" ns3:_="">
     <xsd:import namespace="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
@@ -6400,22 +6415,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71E18D2-388C-40B5-9487-62F8D977B285}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6431,28 +6455,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Vaccine profile age_assumptions - CK edit.xlsx
+++ b/data/Vaccine profile age_assumptions - CK edit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -4815,8 +4815,8 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:H9"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6223,15 +6223,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FED123832FD0488CFCE1AA10E1DCD4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41a705e68a8aeb9b58d52370ca01447e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a45b7c79-9df6-4e54-8c6e-a05b6926a077" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba608db981251bffcca843424efdcbba" ns3:_="">
     <xsd:import namespace="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
@@ -6415,6 +6406,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
   <ds:schemaRefs>
@@ -6432,14 +6432,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71E18D2-388C-40B5-9487-62F8D977B285}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6455,4 +6447,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>